--- a/assets/files/excel/3415.xlsx
+++ b/assets/files/excel/3415.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="pCv97ApjDCjw9hHXpv/5kdRsOzr46kmIcL5gAEi7lxdyjfSndB4svByzMFxnOKSMRr1Ngx+AhaBfUejrdHvESg==" workbookSaltValue="/xJmRNBFv/n8olG+BhMVMg==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="QEhPl1ItyO7e9QWGyIENu0jTp8FRr3BTPnK4Bey39/xF5DMC6dgxbWmFlbQQ92SF+iqaKlM3SisBSDMLvvXc7w==" workbookSaltValue="dRdlpiNYMBfe2+HcvfQcOA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -903,11 +903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="283307136"/>
-        <c:axId val="283309936"/>
+        <c:axId val="251066112"/>
+        <c:axId val="251062976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="283307136"/>
+        <c:axId val="251066112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +950,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283309936"/>
+        <c:crossAx val="251062976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -958,7 +958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="283309936"/>
+        <c:axId val="251062976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="31000"/>
@@ -1010,7 +1010,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283307136"/>
+        <c:crossAx val="251066112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2096,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,7 +2397,7 @@
         <v>36400</v>
       </c>
       <c r="N15" s="34" t="str">
-        <f>IFERROR(IF(SUM('Аренда автомобиля'!B15:M15)=SUM('Аренда автомобиля (решение)'!B15:M15),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUM('Аренда автомобиля'!B15:M15)-SUM('Аренда автомобиля (решение)'!B15:M15))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
         <v>36540</v>
       </c>
       <c r="N16" s="34" t="str">
-        <f>IFERROR(IF(SUM('Аренда автомобиля'!B16:M16)=SUM('Аренда автомобиля (решение)'!B16:M16),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUM('Аренда автомобиля'!B16:M16)-SUM('Аренда автомобиля (решение)'!B16:M16))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
         <v>36400</v>
       </c>
       <c r="C19" s="34" t="str">
-        <f>IFERROR(IF('Аренда автомобиля'!B19='Аренда автомобиля (решение)'!B19,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Аренда автомобиля'!B19-'Аренда автомобиля (решение)'!B19)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="D19" s="4"/>
